--- a/src/analysis_examples/circadb/results_lomb/cosinor_10394690_e2f6_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10394690_e2f6_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.21609038563177851, 0.3394444426639974]</t>
+          <t>[0.21895990510564156, 0.3365749231901344]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.026324994579113e-09</v>
+        <v>2.647662977750542e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>6.026324994579113e-09</v>
+        <v>2.647662977750542e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.1886842434588463</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4372505779735374, 0.5110677115634854]</t>
+          <t>[0.43723785616210026, 0.5110804333749226]</t>
         </is>
       </c>
       <c r="U2" t="n">
